--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\Desktop\qlyBanHang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="291">
   <si>
     <t>Bình luận</t>
   </si>
@@ -642,6 +642,261 @@
   </si>
   <si>
     <t>Đáp ứng tốt nhu cầu hàng ngày, không bị giựt lag. Dùng làm điện thoại phụ rất ổn</t>
+  </si>
+  <si>
+    <t>Mượt(có sao xài zị, chưa cài thêm hay gỡ bỏ cái gì hết), pin trâu bò, màn hình to zòm sướng, android 11 go hỗ trợ tới 2 năm cập nhật, loa không chát, đầm đầm đúng gu Nokia. Mua đi mọi người ơi. Cầm biết lâu cũng hok mỏi gì mấy. Cứ mua đi. CÓ GÌ TUI CHỊU CHO. Ha... ha...</t>
+  </si>
+  <si>
+    <t>máy bị lock chức năng hiển thị bong bóng chat, rất bất tiện. loa nhỏ, màn hình hiển thị khá là chán, 6k mA nhưng nhanh hết pin.</t>
+  </si>
+  <si>
+    <t>Xài ổn định trong tầm giá . Tác vụ cơ bản, mượt và nhanh. Đừng đòi hỏi nhiều với giá này</t>
+  </si>
+  <si>
+    <t>Đã mua online tại TGDĐ Nokia C30 pin bền sóng khỏe, sạc nhanh, màn hình to đẹp, rất ổn trong tầm giá 3 triệu</t>
+  </si>
+  <si>
+    <t>Cam tạm ổn, màn hình tạm ổn, âm thanh tạm lớn, wifi bắt hơi yếu so với 4 cái dt tôi đang dùng. Điểm mất là sạc không phải usb type c , chụp ảnh màn hình khó vì nút âm lượng với nút nguồn nằm 1 bên, gắn sim phải tháo nắp lưng ra mới được, 2 sim 1 thẻ nằm rời hết. TÓM LẠI TỐT TRONG TẦM GIÁ. MỚI MUA 1 CÁI LÚC TRƯA GIỜ THÍCH ĐẶT THÊM CÁI NỮA. CUỒNG NOKIA QUÁ MÀ</t>
+  </si>
+  <si>
+    <t>Điện thoại này cực bền luôn. Pin dùng phải trên 24h mới hết. Nếu dùng tác vụ cơ bản như xem phim, zalo, Facebook... rất mượt. chơi liên quân mobile ở cấu hình thấp rất ổn, không giật lag. Phù hợp cho học sinh học online nhất.</t>
+  </si>
+  <si>
+    <t>Cho tôi hỏi cách cài đặt hiển thị tin nhắn người khác gửi đến và cuộc gọi nhỡ nổi lên màn hình để mình biết là có tin nhắn với cuộc gọi.cám ơn</t>
+  </si>
+  <si>
+    <t>ình mua 1 chiếc từ khi mới xuất hiện trên thị trường, nhưng thất vọng thật sự, mạng chậm lắm, còn khi bấm gõ tin nhắn hay tìm danh bạ thì phải bấm vài lần chọn kiểu gõ mới gõ được còn ko thì nó chạy lung tung hết trơn.</t>
+  </si>
+  <si>
+    <t>Mình mua máy cũ hơn 600k , cập nhật lên HĐH 20.00.17.01 KaiOS 2.5.4 nó mượt lắm , chỉ tội pin hơi yếu , nói chung xứng đáng từng xu</t>
+  </si>
+  <si>
+    <t>Điện thoại hay bị đơ đứng màn hình nhiều lúc bấm đứng im luôn.phải làm sao đây shop</t>
+  </si>
+  <si>
+    <t>Vào danh bạ là đơ luôn không bấm được</t>
+  </si>
+  <si>
+    <t>Vừa mua dùng đc 10 ngày thì đơ lác,rồi màn hình k hiển nữa,mang ra đổi máy khác bị phi 10% ,về lại đơ lác,chán sản phẩm của nokia quá rồi</t>
+  </si>
+  <si>
+    <t>Bình thường không gì nổi bật máy phản hồi thao tác cực kỳ chậm và thời lượng PIN không may ấn tượng</t>
+  </si>
+  <si>
+    <t>Sản phẩm rất rất tệ, bảo hành lần 2 rồi thất vọng với Nokia, ngoài ra nhân viên phục vụ kể cả chác bảo vệ và dịch vụ bảo hành rất tốt.</t>
+  </si>
+  <si>
+    <t>pin tạm được còn phát wifi màn hình sleep là ngắt wifi luôn , ko lẻ để màn hình sáng hoài pin nào chịu nỗi. mọi người có cách khắc phục chưa</t>
+  </si>
+  <si>
+    <t>Sản phẩm cực tệ của Nokia .vào mục nào cũng đơ đơ load chậm. Mới trải nghiệm đc 1 ngày mà muốn đổi trả máy</t>
+  </si>
+  <si>
+    <t>iện thoại mới mua , mà sao thao tác chậm quá , chức năng sữ lý quay lại chậm . chậm hơn cái nokia đời củ , cách đây 10 năm .</t>
+  </si>
+  <si>
+    <t>Máy quá chậm, đơ. Danh bạ, cuộc gọi rất chậm. Tôi muốn trả máy. Chính sách đổi trả ra sao.</t>
+  </si>
+  <si>
+    <t>Tốt so với nhu cầu cơ bản của người lớn như ông bà, cha mẹ Video call tạm ổn Tác vụ cơ bản ổn.</t>
+  </si>
+  <si>
+    <t>Ad ơi cho em hỏi máy em bị vô nước bây giờ thegioididong có sửa chữa không ạ tốn thêm phí bao nhiêu em chịu</t>
+  </si>
+  <si>
+    <t>Mình mới mua khoảng 1 tuần hơn không bị trầy vẫn hoạt động tốt. Tg di động có thu lại k ạ</t>
+  </si>
+  <si>
+    <t>Điện thoại rất chất lượng. Mình mua ở ĐMX đường 5 BH-ĐH. Nhân viên rất nhiệt tình và dễ thương nha. Mấy chị rất nhiệt tình. Điện thoại rất đẹp, loa lớn, màn hình và cảm ứng okay, mượt và rất ổn trong tầm giá.</t>
+  </si>
+  <si>
+    <t>ất ok nhé mới mua đây mặc dù là máy cũ chỉ 700k thôi nhưng duyệt web,youtube,chơi một số game nhẹ như đánh bài zombie tsunami ok nhé.nv bán k rành nên cài youtube go rồi quá trời ứng dụng bản go nhưng k cần thiết nhé.đt đủ sức đáp ứng bản thường.loa nghe k lớn lắm nhưng rất trong và hay.pin thì sau 6 tiếng sử dụng.đa số cài ung dụng.cài đặt lại máy.nghe nhạc ít.doc báo.thì hao khoảng 30%.noi chung 700k ok r</t>
+  </si>
+  <si>
+    <t>ất tệ . Đt gọi thì đc nhận cuộc gọi thì bảo đường dây bận . Rồi đi cho nhân viên kiểm tra lại nói là do nhà mạng. Trong khi mình gắn . Mobi . Viettel. Vina. Cả 3 mạng lun đều như vậy. Như 3 sim đó gắn máy khác vẫn Sài bình thường nghe gọi vẫn OK . Ngoài đường thì dịch tgdd thì chỗ mở cửa chổ ko đi vòng vòng mấy chỗ mới có chỗ mở cửa để cho nhân viên coi lại dùm . Mà vẫn vậy thôi có 230k để đó trưng chơi chứ chạy tới chạy lui lỡ gặp chị covi nữa thì khổ</t>
+  </si>
+  <si>
+    <t>Ko thua gì 3310 chính hãng . mang riềng là TQ nhưng xài còn hơn chính hãng . quá tuyệt</t>
+  </si>
+  <si>
+    <t>Trời ơi, mới mua được hai tháng dùng mà giờ điện thoại nó không hiện màn hình. Mang đi các quán sửa thì họ bảo màn hình không có tại Việt Nam, không sửa được.</t>
+  </si>
+  <si>
+    <t>Sp thấy ghê</t>
+  </si>
+  <si>
+    <t>máy mới mua không lên nguồn</t>
+  </si>
+  <si>
+    <t>Không thể vào filesystem của máy bằng Google Files có sẵn trong máy. Play Store báo hết dung lượng dù chưa cài app gì, phải xoá update mới dùng được. Camera cũng báo hết dung lượng dù chưa cài gì do trong máy không hề có sẵn folder DCIM. Thẻ SD từ máy trước hoạt động bình thường, lắp sang máy mới đã bị corrupt, chỉ cứu được 1 vài ảnh.</t>
+  </si>
+  <si>
+    <t>Xài tốt ổn nha thao tác màn hình hơi chậm k bt về sau còn ổn định hay k cùng chờ nhé</t>
+  </si>
+  <si>
+    <t>Trình ghi âm cuộc gọi k thấy. Nếu muốn ghi âm cuộ c gọi t nên dùng app nào. Thử nhìu app vẫn k ghi âm đc</t>
+  </si>
+  <si>
+    <t>Điện thoại nhiều phần mềm vô dụng được cài sẵn từ NSX và HOÀN TOÀN KHÔNG THỂ GỠ CÀI ĐẶT các phần mềm này theo cách thông thường.</t>
+  </si>
+  <si>
+    <t>Điện thoại này có chơi được pubg với vài cái game như liên quân hay play together ko ạ ad</t>
+  </si>
+  <si>
+    <t>với giá tiền này mua con này mình thấy khá ổn, dùng cũng okie, mọi người có thể suy nghĩ</t>
+  </si>
+  <si>
+    <t>Hàng xài bền nè, mua cho ba mẹ ở quê được 1 tháng rồi thấy ông bà xài ổn áp, màn hình to bật chữ to dễ nhìn nữa!</t>
+  </si>
+  <si>
+    <t>Thiết kế đẹp. Màn hình sắc nét. Chụp hình quá đỉnh. Mình mua con mình xài rất ok.</t>
+  </si>
+  <si>
+    <t>Điện thoại sài rất ok luôn, máy nghe gọi tiếng lớn rõ ràng, lướt mạng cũng rất nhanh, pin sài khá lâu. Cấu hình máy ngon so với tầm giá. Hiện tại ít hãng điện thoại nào tốt và ngon như của hãng Itel. Sẽ ủng hộ dài lâu :)</t>
+  </si>
+  <si>
+    <t>Máy cũng khá mượt và dễ sử dụng, màn hình sáng, chụp ảnh selfie khá chân thực, mình cho 9/10</t>
+  </si>
+  <si>
+    <t>quá ok nhân viên tgdd rất nhiệt tình sẽ ủng hộ dài dài</t>
+  </si>
+  <si>
+    <t>Mình mua it9200 qua sd hôm qua, nhưng về không đồng bộ được danh bạ từ gmail và không định vị được, 2 thứ quan trọng dùng cho trẻ em. Mong QTV giải đáp</t>
+  </si>
+  <si>
+    <t>Sản phẩm hài lòng. Cho mình hỏi mẹ mình nhấn tìm danh bạ theo tên nhưng khi gọi xong vào lại máy thì dạnh bạ vẫn hiện chỗ vừa tìm mà không trở về đầu danh bạ để tìm được tên khác. Có nút nào để trở về đầu danh bạ không ạ?</t>
+  </si>
+  <si>
+    <t>Máy dùng khá tốt. Pin ổn, nghe gọi tốt, loa hơi to. Cho e hỏi Làm sao để tắt âm bàn phím vậy ạ.</t>
+  </si>
+  <si>
+    <t>Nhân viên nhiệt tình, niềm nở , máy bình thường</t>
+  </si>
+  <si>
+    <t>Đánh giá 5 sao dù có 1 vàu điểm trừ nhỏ Tuy nhiên máy khá hợp vs các cụ vì loa to, chữ to , pin trâu. Điểm trừ lớn nhất vs mình đó là kho nhạc chuông.ít quá</t>
+  </si>
+  <si>
+    <t>Mới sử dụng được máy bữa nhưng thấy rất tốt Pin khá trâu Loa nge gọi to Âm thanh khỏi bàn</t>
+  </si>
+  <si>
+    <t>Máy ổn. Loa toa. Để tắt Đọc số, các bạn vào Menu -&gt; Thêm -&gt; King Talker -&gt; Chọn tắt</t>
+  </si>
+  <si>
+    <t>Máy rất tốt trong tầm giá.mà e không cài nhạc từ thẻ nhớ làm nhạc chuông được vậy ạ</t>
+  </si>
+  <si>
+    <t>Tôi hài lòng với sản phẩm mới của mình. Tai nghe thì tốt không bị rè, âm nhạc thì tốt, đài fm nghe tốt, bluetooth thì tốt, sạc pin thì nhanh, pin thì trâu, nói chung là tất cả sản phẩm đều tốt. Nhân viên thì nhiệt tình và giao hàng dúng giờ. Tôi rất cảm ơn Điện Máy Xanh</t>
+  </si>
+  <si>
+    <t>Mới mua hôm qua, máy thì ok</t>
+  </si>
+  <si>
+    <t>Máy đẹp, loa to, có đèn nháy khi có tin nhắn và cuộc gọi. Chỉ có điều là loa thoại dùng chung với loa ngoài nên hơi bất tiện</t>
+  </si>
+  <si>
+    <t>Sản phẩm tốt. Chức năng vẫn như thế hệ trước. Pin dùng được 7 ngày, nghe gọi to rõ. Hình thức đẹp, nhất là màu trắng, chỉ có điều máy hơi ọp ẹp, không được cứng cáp.</t>
+  </si>
+  <si>
+    <t>Sản phẩm đẹp, loa to đặc biệt nghe đài fm rất hay và không cần dây . Mầu green lại mắt</t>
+  </si>
+  <si>
+    <t>Mua 2 cái thì cả 2 cái đều bị lỗi sạc không vào</t>
+  </si>
+  <si>
+    <t>Tôi mua cho cụ u70, loa to, rõ ràng, pin lâu, tiện nhất có nút gạt bật đèn pin bên sườn máy rất tiện lợi cho các cụ để ở giường cần có cái soi soi đêm hôm</t>
+  </si>
+  <si>
+    <t>Moá máy cầm sướng thật. Nhiều năm cầm các loai Cảm ứng chán rồi. Loa to. Rõ. Song mạnh. Đt này làm con phụ thì rất ok. Nghe nhạc. FM sướng. Màu xanh dương đẹp vãi.</t>
+  </si>
+  <si>
+    <t>Máy đẹp, cầm chắc tay không ọp ẹp. Pin khoẻ, xài khá nhiều chắc gần 1 tuần. Màn hình sáng đẹp, nghe gọi loa trong và chuông ngoài to rõ, bàn phím nẩy tốt. Phần mềm danh bạ thông minh. Xài ăn đứt mấy ông Nokia.</t>
+  </si>
+  <si>
+    <t>Pin trâu kinh khủng,nghe gọi thoải mái,mỗi tội điện thoại to,bỏ túi đem đi khó,radio bắt sóng kém,hay bị chập chờn</t>
+  </si>
+  <si>
+    <t>Pin trâu thiệt nhưng củ sạc bị hư đi kiếm khắp nơi(kể cả các shoop trên mạng)không ra cũng là thiệt luôn.</t>
+  </si>
+  <si>
+    <t>khong có nut căm tai nghe. chup anh quá mờ. đen pin sáng quá gần. pin khá ổn định đai FM khá ổn</t>
+  </si>
+  <si>
+    <t>Cũng ok . Nhưng giao hàng lâu quá, 1 tuần mới nhận được</t>
+  </si>
+  <si>
+    <t>Xài okxaif ok</t>
+  </si>
+  <si>
+    <t>Nhân viên vui vẻ nhiệt tình.sản phẩm ưng ý.tgdd là nơi đáng để tới.chúc anh chị đón năm mới nhiều sức khoẻ nhiều thành công niềm vui trong công việc và cuộc sống</t>
+  </si>
+  <si>
+    <t>:) giá quá tốt cho 1 sản phẩm tuyệt vời, mong rằng sẽ có nhiều sản phẩm như thế nữa để mình có thể mua cho những người nghèo</t>
+  </si>
+  <si>
+    <t>Điện thoại tốt., chữ to nhìn rõ , nghe gọi rất rõ , loa to giúp nghe được chuông khi có người gọi đến.</t>
+  </si>
+  <si>
+    <t>Độ phân giải màn hình khá tốt, âm thanh trong và lớn, dùng bỏ túi nghe gọi gọn nhẹ. Anh Chị trong DMX tư vấn vô cùng nhiệt tình, thân thiện. Rất cảm ơn DMX. Đã mua hàng tại DMX và TGDD nhiều lần</t>
+  </si>
+  <si>
+    <t>Máy mới mua, không xài gì cả mà từ sáng đến chiều chưa hết 1 ngày đã hết sạch pin</t>
+  </si>
+  <si>
+    <t>Máy E241S mua về dùng nhưng phím hay bị đơ và các chức năng như mở khóa quá chậm tôi mới mua được hơn chục ngày liệu có trả lại hoặc đổi máy khác được không</t>
+  </si>
+  <si>
+    <t>Máy dùng đc 2 tháng chạy quá ì ạch. Xử lý chậm, bấm số có khi chờ cả 1 hơi máy mới phản hồi. Đã quăng bỏ dùng lại con Nokia cũ</t>
+  </si>
+  <si>
+    <t>Bàn phím máy có khi bấm được có lúc không nhà sản xuất nên xem lại còn wifi thì OK</t>
+  </si>
+  <si>
+    <t>Đầu năm đầu tháng con đt này lăn ra tạch, kết nối wifi và 4G bị báo lỗi proxy không sữ dụng được internet nữa. Pin khá thất vọng, máy có độ trễ cao khi dùng các tác vụ cơ bản.</t>
+  </si>
+  <si>
+    <t>Nói chung khá thất vọng. Máy rất chậm, đơ. Mở khóa bàn phím thì "ngu" hết sức. Bấm nhiều phím * dễ bị liệt.</t>
+  </si>
+  <si>
+    <t>Nói thiệt Sài ức chế dễ ghê luôn muốn gọi cho ai mở máy hoài thiệt lâu mới đc pin không Sài cũng mất nhiều % ngày nữa quá ức chế!.....</t>
+  </si>
+  <si>
+    <t>Máy có ưu điểm là kết nối wifi Còn lại nghe gọi thì bình thường Phím bấm hay bị đơ Vỏ bên ngoài ọp ẹp không cứng cáp</t>
+  </si>
+  <si>
+    <t>Nói thật mua máy về để dùng cho vui thôi , nhưng mà n đơ lag lắm luôn , có lẽ nên mua 1 con Nokia làm máy phụ tốt hơn nhiều</t>
+  </si>
+  <si>
+    <t>Máy rất tốt, tôi muốn hỏi có phụ kiện máy nữa ko. Tôi muốn mua thêm 1 quả pin nữa. Còn hàng pin không?</t>
+  </si>
+  <si>
+    <t>Có thể ném, chọi khi cần thiết pin trâu chức năng load chậm , đèn pin k sáng lắm</t>
+  </si>
+  <si>
+    <t>Mọi chức năng ok, vào chụp hình lag, chuông to nhưng khi gọi nghe nhỏ, người gọi cũng nghe nhỏ và rè. Mai đi đổi hoàn tiền</t>
+  </si>
+  <si>
+    <t>Điện thoại ngon bổ rẻ, pin trâu, nghe nhạc hay, kết nối bluetooth tốt, chương trình nghe nhạc có thể hát theo danh sách, hát lập 1 bài, lập đoạn trong bài, rất phù hợp cho sinh viên học ngoại ngữ, nếu cằm cái smartphone luyên nghe, thì ko tập trung được, vì trong smartphone luôn có các trò chơi và mạng xã hội</t>
+  </si>
+  <si>
+    <t>Máy pin trâu đúng dung lượng pin, có điều nghe nhạc, cập nhật nhạc thẻ nhớ khó, màn hình dể trầy sướt</t>
+  </si>
+  <si>
+    <t>Tôi rất hài lòng về nhân viên ở tggd ngã 4 miếu ông cù . Trước đây tôi mua nokia 105 máy pin rất dở ,rung yếu ,hay sập nguồn , tôi mua tiếp nokia 110 , nó vẫn vậy pin quá tệ , sau 2 ngày tôi đổi qua máy này chỉ có 1 từ tuyệt vời .lúc mua về pin 60% , tôi gọi 1 buổi tối khoảng 3h cho người thân , xong để tiếp 2 ngày nghe gọi bình thường thì pin chỉ mất 20% , quá tuyệt .đúng nghĩa là 1 con trâu , phải gọi là con trâu điên . Mặc dù mic thu hơi kém nhưng tôi đã khắc phục bằng cách nói to hơn , không sao cả , không có gì là hoàn hảo .tuyệt vời .</t>
+  </si>
+  <si>
+    <t>dùng rất tốt, chờ đc hơn 26 ngày ,ko giật lag,dùng ko lo hỏng, game hay,phong phú, thẻ nhớ 8gb</t>
+  </si>
+  <si>
+    <t>pin yếu ít chức năng giá cao</t>
+  </si>
+  <si>
+    <t>Rat tot noi dong coi da nghe goi ro pin trau hy vong ben voi thoi gian se mua ung ho tiep</t>
+  </si>
+  <si>
+    <t>Máy mới mua mà mở điện thoại không lên. Sạc thì không được. Dịch bệnh vầy nên rất khó khi đi tới đi lui để Bảo hành. Mong DMX kiểm tra máy trước khi giao cho KH.</t>
+  </si>
+  <si>
+    <t>Sạc đầy pin gọi mới mấy cuộc gọi thoại hết pin là sao, mới mua được 1 ngày.,dịch làm sao đổi trả đây</t>
   </si>
 </sst>
 </file>
@@ -979,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199:B200"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2591,6 +2846,806 @@
         <v>5</v>
       </c>
     </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B300" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tốt" sheetId="2" r:id="rId2"/>
+    <sheet name="Không tốt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="419">
   <si>
     <t>Bình luận</t>
   </si>
@@ -332,9 +334,6 @@
     <t>Lỗi camera zalo, không kết thúc cuộc gọi được. Đáng buồn khi mua máy. Không biết bên mình có hỗ trợ đổi mới không, máy mới mua đc 10 ngày</t>
   </si>
   <si>
-    <t>Đt Sài cũng ổn mỗi cái hay bị lỗi Zalo gọi video call tự tắt cam r không kết thúc cuộc gọi được</t>
-  </si>
-  <si>
     <t>máy giật lag,cảm ứng có vẻ không được nhậy</t>
   </si>
   <si>
@@ -542,9 +541,6 @@
     <t>Máy rất lag và sử lý rất chậm, hay bị tuột độ sáng.. không như TGDD quảng cáo. .</t>
   </si>
   <si>
-    <t>essenger không nhận được thông báo cuộc gọi và tin nhắn lỗi tùm lum không hài lòng</t>
-  </si>
-  <si>
     <t>Đt sóng wifi lúc đc lúc ko. Chế độ hậu mãi tệ. TGDD càng ngày càng mất uy tín</t>
   </si>
   <si>
@@ -897,6 +893,396 @@
   </si>
   <si>
     <t>Sạc đầy pin gọi mới mấy cuộc gọi thoại hết pin là sao, mới mua được 1 ngày.,dịch làm sao đổi trả đây</t>
+  </si>
+  <si>
+    <t>Dùng rất tốt</t>
+  </si>
+  <si>
+    <t>quá tốt</t>
+  </si>
+  <si>
+    <t>chất lượng</t>
+  </si>
+  <si>
+    <t>tốt</t>
+  </si>
+  <si>
+    <t>không bị bong</t>
+  </si>
+  <si>
+    <t>Rất thích</t>
+  </si>
+  <si>
+    <t>dễ sữ dụng</t>
+  </si>
+  <si>
+    <t>đẹp</t>
+  </si>
+  <si>
+    <t>bền</t>
+  </si>
+  <si>
+    <t>tuyệt vời</t>
+  </si>
+  <si>
+    <t>tiện dụng</t>
+  </si>
+  <si>
+    <t>hợp lí</t>
+  </si>
+  <si>
+    <t>thời gian bảo hành tốt</t>
+  </si>
+  <si>
+    <t>giá cả hợp lý</t>
+  </si>
+  <si>
+    <t>sử dụng tốt</t>
+  </si>
+  <si>
+    <t>Rất hữu dụng</t>
+  </si>
+  <si>
+    <t>dùng ổn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mượt</t>
+  </si>
+  <si>
+    <t>rất tốt</t>
+  </si>
+  <si>
+    <t>Xài êm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Khá là ổn</t>
+  </si>
+  <si>
+    <t>màu sắc đẹp</t>
+  </si>
+  <si>
+    <t>nhạy</t>
+  </si>
+  <si>
+    <t>máy mượt</t>
+  </si>
+  <si>
+    <t>xử lý tốt</t>
+  </si>
+  <si>
+    <t>xử lí nhanh</t>
+  </si>
+  <si>
+    <t>khỏi phải chê</t>
+  </si>
+  <si>
+    <t>hợp lý</t>
+  </si>
+  <si>
+    <t>ổn định</t>
+  </si>
+  <si>
+    <t>mượt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cực trâu</t>
+  </si>
+  <si>
+    <t>hoàn hảo</t>
+  </si>
+  <si>
+    <t>mượt mà</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> khá ok</t>
+  </si>
+  <si>
+    <t>rất ổn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> khá mượt</t>
+  </si>
+  <si>
+    <t>xài phê</t>
+  </si>
+  <si>
+    <t>rất thích</t>
+  </si>
+  <si>
+    <t>giới thiệu thêm</t>
+  </si>
+  <si>
+    <t>xịn xò</t>
+  </si>
+  <si>
+    <t>Pin khỏe</t>
+  </si>
+  <si>
+    <t>siêu nhanh</t>
+  </si>
+  <si>
+    <t>Ổn Áp</t>
+  </si>
+  <si>
+    <t>nên tham khảo</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cực nhanh</t>
+  </si>
+  <si>
+    <t>dùng tốt</t>
+  </si>
+  <si>
+    <t>ổn</t>
+  </si>
+  <si>
+    <t>nhẹ</t>
+  </si>
+  <si>
+    <t>suất sắc</t>
+  </si>
+  <si>
+    <t>khá</t>
+  </si>
+  <si>
+    <t>mạnh</t>
+  </si>
+  <si>
+    <t>hay</t>
+  </si>
+  <si>
+    <t>nên mua</t>
+  </si>
+  <si>
+    <t>hài lòng</t>
+  </si>
+  <si>
+    <t>thoải mái</t>
+  </si>
+  <si>
+    <t>Sài ok phết</t>
+  </si>
+  <si>
+    <t>Messenger không nhận được thông báo cuộc gọi và tin nhắn lỗi tùm lum không hài lòng</t>
+  </si>
+  <si>
+    <t>ko mơ gì hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chắc chắn</t>
+  </si>
+  <si>
+    <t>sóng khỏe</t>
+  </si>
+  <si>
+    <t>tạm ổn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> khá ổn</t>
+  </si>
+  <si>
+    <t>Ngon</t>
+  </si>
+  <si>
+    <t>xứng đáng</t>
+  </si>
+  <si>
+    <t>quá tuyệt</t>
+  </si>
+  <si>
+    <t>sắc nét</t>
+  </si>
+  <si>
+    <t>khỏi bàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> không bị rè</t>
+  </si>
+  <si>
+    <t>ọp ẹp</t>
+  </si>
+  <si>
+    <t>rất hay</t>
+  </si>
+  <si>
+    <t>rõ ràng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to</t>
+  </si>
+  <si>
+    <t>tiện lợi</t>
+  </si>
+  <si>
+    <t>chán</t>
+  </si>
+  <si>
+    <t>sướng thật</t>
+  </si>
+  <si>
+    <t>thông minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ăn đứt</t>
+  </si>
+  <si>
+    <t>gọn nhẹ</t>
+  </si>
+  <si>
+    <t>load chậm</t>
+  </si>
+  <si>
+    <t>ko lo hỏng</t>
+  </si>
+  <si>
+    <t>ko giật lag</t>
+  </si>
+  <si>
+    <t>phong phú</t>
+  </si>
+  <si>
+    <t>không nghe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> không hài lòng </t>
+  </si>
+  <si>
+    <t>không được sắc nét</t>
+  </si>
+  <si>
+    <t>không hiểu</t>
+  </si>
+  <si>
+    <t>bực mình</t>
+  </si>
+  <si>
+    <t>độ trễ cao</t>
+  </si>
+  <si>
+    <t>kém</t>
+  </si>
+  <si>
+    <t>hư</t>
+  </si>
+  <si>
+    <t>chậm</t>
+  </si>
+  <si>
+    <t>sai lầm</t>
+  </si>
+  <si>
+    <t>yêu</t>
+  </si>
+  <si>
+    <t>dởm</t>
+  </si>
+  <si>
+    <t>tẩy chay</t>
+  </si>
+  <si>
+    <t>nhanh hết pin</t>
+  </si>
+  <si>
+    <t>thất vọng</t>
+  </si>
+  <si>
+    <t>rất chán</t>
+  </si>
+  <si>
+    <t>hơi nặng</t>
+  </si>
+  <si>
+    <t>Đt Sài cũng ổn mỗi cái hay Ci Zalo gọi video call tự tắt cam r không kết thúc cuộc gọi được</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giật lag</t>
+  </si>
+  <si>
+    <t>đơ</t>
+  </si>
+  <si>
+    <t>rất khó chịu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tụt ghê</t>
+  </si>
+  <si>
+    <t>rất kém</t>
+  </si>
+  <si>
+    <t>yếu</t>
+  </si>
+  <si>
+    <t>kinh khủng</t>
+  </si>
+  <si>
+    <t>xấu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lỏng lẻo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> không ổn định</t>
+  </si>
+  <si>
+    <t>rất nóng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rất tệ</t>
+  </si>
+  <si>
+    <t>nghe ko được</t>
+  </si>
+  <si>
+    <t>mất uy tín</t>
+  </si>
+  <si>
+    <t>Sai lầm</t>
+  </si>
+  <si>
+    <t>rè rè</t>
+  </si>
+  <si>
+    <t>giao diện rố</t>
+  </si>
+  <si>
+    <t>không nên mua</t>
+  </si>
+  <si>
+    <t>cực kỳ chậm</t>
+  </si>
+  <si>
+    <t>sập nguồn</t>
+  </si>
+  <si>
+    <t>mãi tệ</t>
+  </si>
+  <si>
+    <t>đơ lác</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thấy ghê</t>
+  </si>
+  <si>
+    <t>quá chậm</t>
+  </si>
+  <si>
+    <t>quá ì ạch</t>
+  </si>
+  <si>
+    <t>dễ bị liệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ức chế</t>
+  </si>
+  <si>
+    <t>không cứng cáp</t>
+  </si>
+  <si>
+    <t>đơ lag</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
       <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
@@ -2024,7 +2410,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -2032,7 +2418,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -2040,7 +2426,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -2048,7 +2434,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2056,7 +2442,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -2064,7 +2450,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -2072,7 +2458,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -2080,7 +2466,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -2088,7 +2474,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2096,7 +2482,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -2104,7 +2490,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -2112,7 +2498,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -2120,7 +2506,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2128,7 +2514,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -2136,7 +2522,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -2144,7 +2530,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -2152,7 +2538,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2160,7 +2546,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -2168,7 +2554,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -2176,7 +2562,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -2184,7 +2570,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2192,7 +2578,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -2200,7 +2586,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -2208,7 +2594,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -2216,7 +2602,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -2224,7 +2610,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -2232,7 +2618,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -2240,7 +2626,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -2248,7 +2634,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -2256,7 +2642,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -2264,7 +2650,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -2272,7 +2658,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -2280,7 +2666,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -2288,7 +2674,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2296,7 +2682,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -2304,7 +2690,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2312,7 +2698,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2320,7 +2706,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -2328,7 +2714,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -2336,7 +2722,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -2344,7 +2730,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -2352,7 +2738,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -2360,7 +2746,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -2368,7 +2754,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -2376,7 +2762,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -2384,7 +2770,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -2392,7 +2778,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -2400,7 +2786,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -2408,7 +2794,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2416,7 +2802,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -2424,7 +2810,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -2432,7 +2818,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -2440,7 +2826,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -2448,7 +2834,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -2456,15 +2842,15 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -2472,7 +2858,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -2480,7 +2866,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -2488,7 +2874,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -2496,7 +2882,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2504,7 +2890,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
@@ -2512,7 +2898,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -2520,7 +2906,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -2528,7 +2914,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -2536,15 +2922,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -2552,15 +2938,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
@@ -2568,7 +2954,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -2576,15 +2962,15 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -2592,7 +2978,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -2600,7 +2986,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -2608,7 +2994,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -2616,7 +3002,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -2624,7 +3010,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -2632,7 +3018,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -2640,7 +3026,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -2648,7 +3034,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -2656,7 +3042,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -2664,7 +3050,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -2672,7 +3058,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -2680,7 +3066,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -2688,15 +3074,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -2704,7 +3090,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -2712,7 +3098,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -2720,7 +3106,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -2728,7 +3114,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -2736,7 +3122,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -2744,7 +3130,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -2752,7 +3138,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
@@ -2760,7 +3146,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -2768,7 +3154,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -2776,7 +3162,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -2784,7 +3170,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -2792,7 +3178,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -2800,7 +3186,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -2808,7 +3194,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
@@ -2816,7 +3202,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -2824,7 +3210,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -2832,7 +3218,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -2840,7 +3226,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -2848,7 +3234,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
@@ -2856,7 +3242,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -2864,7 +3250,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -2872,7 +3258,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -2880,7 +3266,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
@@ -2888,7 +3274,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -2896,7 +3282,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
@@ -2904,7 +3290,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -2912,7 +3298,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -2920,7 +3306,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -2928,7 +3314,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -2936,7 +3322,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
@@ -2944,7 +3330,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
@@ -2952,7 +3338,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -2960,7 +3346,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
@@ -2968,7 +3354,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -2976,7 +3362,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -2984,7 +3370,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
@@ -2992,7 +3378,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -3000,7 +3386,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
@@ -3008,7 +3394,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
@@ -3016,7 +3402,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
@@ -3024,7 +3410,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
@@ -3032,7 +3418,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -3040,7 +3426,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -3048,7 +3434,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
@@ -3056,7 +3442,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -3064,7 +3450,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -3072,7 +3458,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
@@ -3080,7 +3466,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -3088,7 +3474,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -3104,7 +3490,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
@@ -3112,7 +3498,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -3120,7 +3506,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -3128,7 +3514,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
@@ -3136,7 +3522,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
@@ -3144,7 +3530,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
@@ -3152,7 +3538,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
@@ -3160,7 +3546,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -3168,7 +3554,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B241" t="s">
         <v>8</v>
@@ -3176,7 +3562,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B242" t="s">
         <v>8</v>
@@ -3184,7 +3570,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
@@ -3192,7 +3578,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -3200,7 +3586,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -3208,7 +3594,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -3216,15 +3602,15 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B247" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -3232,7 +3618,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -3240,7 +3626,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B250" t="s">
         <v>8</v>
@@ -3248,7 +3634,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
@@ -3256,7 +3642,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B252" t="s">
         <v>10</v>
@@ -3264,7 +3650,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -3272,7 +3658,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B254" t="s">
         <v>8</v>
@@ -3280,7 +3666,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -3288,7 +3674,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -3296,7 +3682,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -3304,7 +3690,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -3312,7 +3698,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -3320,7 +3706,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -3328,7 +3714,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -3336,7 +3722,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -3344,7 +3730,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -3352,7 +3738,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -3360,7 +3746,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -3368,7 +3754,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -3376,7 +3762,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -3384,7 +3770,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B268" t="s">
         <v>8</v>
@@ -3392,7 +3778,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -3400,7 +3786,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -3408,7 +3794,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -3416,7 +3802,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -3424,7 +3810,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
@@ -3432,7 +3818,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B274" t="s">
         <v>8</v>
@@ -3440,7 +3826,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -3448,7 +3834,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -3456,7 +3842,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -3464,7 +3850,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -3472,7 +3858,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -3480,7 +3866,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -3488,7 +3874,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
@@ -3496,7 +3882,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -3504,7 +3890,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
@@ -3512,7 +3898,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
@@ -3520,7 +3906,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
@@ -3528,7 +3914,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
@@ -3536,7 +3922,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
@@ -3544,7 +3930,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
@@ -3552,7 +3938,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B289" t="s">
         <v>8</v>
@@ -3560,7 +3946,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -3568,7 +3954,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -3576,7 +3962,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
@@ -3584,7 +3970,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -3592,7 +3978,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -3600,7 +3986,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -3608,7 +3994,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -3616,7 +4002,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B297" t="s">
         <v>8</v>
@@ -3624,7 +4010,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -3632,7 +4018,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
@@ -3640,7 +4026,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
@@ -3650,4 +4036,707 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A72">
+    <sortCondition ref="A55"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="592">
   <si>
     <t>Bình luận</t>
   </si>
@@ -1283,6 +1283,525 @@
   </si>
   <si>
     <t>đơ lag</t>
+  </si>
+  <si>
+    <t>Bắt sóg wifi cực kì kém</t>
+  </si>
+  <si>
+    <t>Thật sự rất thất vọng và bức súc khi tôi mua dùng 10 ngày đã sãy ra lỗi ko cho tôi đổi mới phải kêu tui gửi về hãng..đưa cho kiểm tra thì bấm bấm chẳng làm được gì..kêu về dùng thì vẫn vậy...h qua tháng luôn rồi làm đc j nửa đáng lên án</t>
+  </si>
+  <si>
+    <t>Mới mua dùng dc 2 ngày, Pin tụt khá nhanh dù để chế độ tiết kiệm pin. Máy nhạy, xử lý tác vụ nhanh.</t>
+  </si>
+  <si>
+    <t>Máy xài rất tốt pin hơi hẻo còn lại oke</t>
+  </si>
+  <si>
+    <t>Tác vụ rất tốt và rất ok mà cứ hay bị văng wifi ra rất khó chịu nhưng vẫn cho 5 sao</t>
+  </si>
+  <si>
+    <t>San pham tot</t>
+  </si>
+  <si>
+    <t>Cảm ứng mượt, nhanh. Màn hình khá nét, màu đẹp, sống động, sáng nhìn ngoài trời nắng thoải mái. Pin rẩt trâu game cả ngày không hết. Tốc chiến, liên quân, world of tank bao mượt. Camera ok. Sử dụng thực tế cảm giác ổn hơn nhiều cấu hình trên giấy. Đáng tiền.</t>
+  </si>
+  <si>
+    <t>xài rất tốt, chơi game mượt mà nhưng do chip còn mới chưa được tối ưu nên có một số game bị lỗi!</t>
+  </si>
+  <si>
+    <t>Rất hài long...se ung ho nhiu hon</t>
+  </si>
+  <si>
+    <t>Sài ok lắm,nhưng coi phim hơi dựt</t>
+  </si>
+  <si>
+    <t>Điện thoại ngon trong tầm giá , trãi nghiệm mượt mà , mình rất ưng ý .</t>
+  </si>
+  <si>
+    <t>ưng ý</t>
+  </si>
+  <si>
+    <t>Màn hình đẹp .cầu hình cũng mạnh đó satpin nhanh</t>
+  </si>
+  <si>
+    <t>Sp thiết kế đẹp. Có camera tới 108mp. Chụp hình sắt nét. Sạc siêu nhanh</t>
+  </si>
+  <si>
+    <t>Sản phẩm chất lượng, trước xài 10s,này qua xài 11 pro thấy xứng đáng với hơn 7 triệu.</t>
+  </si>
+  <si>
+    <t>Máy sài ngon. Khâ hai long. Bưa mua cho mẹ dùng ok quá ra mua thêm cái nưa cho con học online. Nên mua</t>
+  </si>
+  <si>
+    <t>Lúc đầu thấy mượt về sau thấy lag và tự nhiên sập nguồn Nói chung là tệ Không nên mua</t>
+  </si>
+  <si>
+    <t>Đọc báo toàn đơ, ứng dụng đơn giản máy cũng đơ, màu thì nhợt nhạt, tôi đang sd Samsung A7 2018 cùng cấu hình mà cảm giác khác xa. Thật thất vọng.</t>
+  </si>
+  <si>
+    <t>Hazzz mới mua điện thoại chưa hết mừng Giờ sài được có 1 sim Lỗi điện thoại không thể sài 2 sim Phải lấy điện thoại củ lại sử dụng</t>
+  </si>
+  <si>
+    <t>Lỗi</t>
+  </si>
+  <si>
+    <t>Ai có ý định mua thì bỏ đi nhé.ram ảo đt giật lác.tôi còn bị tự tắt bật nguồn k lý do</t>
+  </si>
+  <si>
+    <t>Máy sử dụng rất tệ phản hồi rất chậm có khi bị đơ và loạn cảm ứng luôn thất vọng với mấy điện thoại giá rẻ của sam sung</t>
+  </si>
+  <si>
+    <t>Sai lầm mua con này. Test thử LQ để cấu hình vừa ôi trời nó nóng xong giật như điên. Thua con a20s mấy năm trước nữa. Chịu</t>
+  </si>
+  <si>
+    <t>Điện thoại quá cùi nước có xíu hình đứng hình bấm khó khăn lag hơn máy khác,tui thấy máy ngày rất tệ 1 sao</t>
+  </si>
+  <si>
+    <t>quá cùi</t>
+  </si>
+  <si>
+    <t>Lên mạng rất chậm, không mượt mà gì đâu</t>
+  </si>
+  <si>
+    <t>Tôi không còn gì để nói đến A32 nữa....vừa đắt tiền mà sử dụng vô cùng tồi tệ...đo màn hình,camera ko chụp đc phải khởi động lại đt,nhắn tin là hay đơ bàn phím…</t>
+  </si>
+  <si>
+    <t>tồi tệ</t>
+  </si>
+  <si>
+    <t>Tệ hại mua được 10 tháng lỗi không ai gọi đến mà nghe được tiếng chuông, hãng đổ thừa kh ,chính thức chuyển sang oppo</t>
+  </si>
+  <si>
+    <t>Máy mua chưa đầy 1 tháng vừa đi mưa 1 ngày phải thay cái main 2tr4 bằng gần nửa con máy Mọi người k nên mua</t>
+  </si>
+  <si>
+    <t>Đây là cái samsung cuối cùng tôi dùng.. vì quá tệ.. tất cả mọi thứ đều quá tệ 1 sao cho A32</t>
+  </si>
+  <si>
+    <t>Máy kém, cảm ứng tệ, chơi game thì đúng chất ối dồi ôi, ai có ý định mua thì né dòng này ra nhé</t>
+  </si>
+  <si>
+    <t>Máy bị lỗi khi bắt sóng wifi, thường xuyên rớt mạng. Đề nghị sam sung thu hồi sản phẩm lỗi lại cho khách hàng</t>
+  </si>
+  <si>
+    <t>A32 này thực sự thất vọng.nào là cheo máy camera đen xì.sóng thì chập chờn.ko đáng 2tr.mua máy này gọi là của nợ</t>
+  </si>
+  <si>
+    <t>Máy ruốt ngày rớt mạng.đơ màn hình.wifi quá kém chưa bao giờ dùng điện thoại nào mà nó chán như ss A 32 này</t>
+  </si>
+  <si>
+    <t>rớt mạng</t>
+  </si>
+  <si>
+    <t>Máy mới mua mấy hôm lỗi kg chụp dcd ảnh thỉnh thoảng lại bị đơ mang ra điện máy xanh khắc phục giờ lại lỗi wifi</t>
+  </si>
+  <si>
+    <t>Chụp xấu tệ.</t>
+  </si>
+  <si>
+    <t>xấu tệ</t>
+  </si>
+  <si>
+    <t>Rất tệ , nếu cho lựa chọn mua tiếp tục ở Thế Giới Di Động mình sẽ từ chối lập tức máy rất tệ</t>
+  </si>
+  <si>
+    <t>Trừ vẻ bề ngoài ra thì Điện thoại sử dụng cực tệ , thường xuyên mất cảm ứng , pin yếu , cammera chụp cực xấu</t>
+  </si>
+  <si>
+    <t>Vào mạng chậm rất chậm máy dùng chán nhất từ trước đến giờ kiểm tra 2 lần vào vẫn chậm chán.chụp hình cũng ko đẹp nói chung ko bằng còn j7 prime</t>
+  </si>
+  <si>
+    <t>máy hay bị đơ với lỗi camera ,ngày bị 2 hay 3 lần vậy đó lúc nào cũng phải khởi động lại ,cảm thấy rất bực mình</t>
+  </si>
+  <si>
+    <t>Máy mới mua 2 tháng mà bị đơ và bị treo máy liên tục. Ức chế ghê. Sai lầm khi chọn dòng máy này.</t>
+  </si>
+  <si>
+    <t>Sóng điện thoại rất kém có lúc mất hẳn.giới thiệu là điện thoại kết nối mạng khỏe mà k bằng các điện thoại bình thường của hãng khác.rất mong được phản hồi lại</t>
+  </si>
+  <si>
+    <t>Chưa thấy cái nào tệ ntn 3g 4g quá tệ toàn bị mất sóng mất mạng trong khi đt # bên cạnh dùng ok</t>
+  </si>
+  <si>
+    <t>Mới mua 2h trước bây h cảm ửng k nhạy lướt wed, facebook máy cứ giật giật thất vọng ghê</t>
+  </si>
+  <si>
+    <t>Bắt mạng quá kém dù là sim điện thoại hay WiFi cũng vậy. Dù sài WiFi gia đình và của nhà mạng viettel luôn.</t>
+  </si>
+  <si>
+    <t>Điện thoại rất tệ, kết nối wifi, youtube, các app khác nữa ...mở rất chạm,...( mình có so sánh thực tế điện thoại cũ vinmart live ) chạy thua điện thoại cũ . Cán bạn không nên dòng sản phảm này</t>
+  </si>
+  <si>
+    <t>Đt quá tệ mua 3 tháng máy đơ chạy chậm máy hay bị lỗi đứng máy vào ứng dụng hay bị bung ra</t>
+  </si>
+  <si>
+    <t>Tjnh hinh nay chắc bỏ ss quá. Bắt song wifi qua tệ. Mới mua 2 tuân . Mà báo sóng wifi chấm than. Khuyên ae sak đừng mua</t>
+  </si>
+  <si>
+    <t>Máy dùng chưa được 3 tháng thì đơ máy, cảm biến vân tay thì chậm, kết nối wifi yếu, ảnh gửi đến zalo tải cả buổi mới xem được, quá tệ.</t>
+  </si>
+  <si>
+    <t>T khuyên đừng nên mua vừa sài hết bảo hành 1th đầu tiên là lỗi tùm lum</t>
+  </si>
+  <si>
+    <t>Mới dùng đc 1 tháng mà đủ các lỗi, có thông báo cái n đứng yên trên màn hình k tắt đi được nhảy đủ chỗ</t>
+  </si>
+  <si>
+    <t>Dòng máy tệ , bắt wifi chậm , tắt fb r vẫn còn hát . Hệ thống lau lâu chớp chớp . Nhanh hết pin . Cảm nhận sau 5 tháng sử dụng</t>
+  </si>
+  <si>
+    <t>cực kì cực kì tệ. lần 1 lỗi facebook, lần 2 lỗi zalo, t quá chán với cái máy này,quá quá tệ!</t>
+  </si>
+  <si>
+    <t>A32 là dòng sản phẩm lỗi nhất của sasmung sản xuất. Sai lầm khi mua ss A32, máy hay bị tắt nguồn và pin tụt không có lí do. Nhiều lúc vào chụp hình hay xem tiktok mà đơ máy luôn, thất vọng…</t>
+  </si>
+  <si>
+    <t>May bi lỗi wifi ko kết nối tụ động dc, tắt máy mo lên moi kết noi dc Còn 3/4 g thì phai noi la rất rất yếu, dù la vẫn còn toc độ cao mong phắn hồi sớm từ nhà sang xuất</t>
+  </si>
+  <si>
+    <t>Không sài vẫn tụt pin... 4% trên tiếng..4 phút 1%..thất vọng cho máy này.a 20 ngon và IM hơn..</t>
+  </si>
+  <si>
+    <t>tụt pin</t>
+  </si>
+  <si>
+    <t>Dt mình mới mua chưa dc 1 tháng nữa mà sài mọi thứ thỉ tốt những có cái là chơi game với lại vào nhưng câu hình đoi khj bị lác và chậm qua</t>
+  </si>
+  <si>
+    <t>Tệ . rất tệ . lần cuối dùng hãng này</t>
+  </si>
+  <si>
+    <t>Điện thoại sạc 1 tiếng vô 10% pin là sao. Mới mua 1 ngày, cảm nhận rất tệ, giờ ở xa ko biết đem đi bảo hành được không</t>
+  </si>
+  <si>
+    <t>Tôi đã đổi đến chiếc thứ 2 chiếc nào cũng lỗi camera chạy ứng dụng rất chậm dùng đk 1 2 tháng là pin xuống máy rất nóng đôi khi còn đơ luôn .hàng rất tệ</t>
+  </si>
+  <si>
+    <t>Chơi lq thua phím điều khiển k đi được k lẽ đập luôn ĐT chứ .mới mua chưa được 1thang giờ đi cách li sao trả tới về thì hết đổi được rồi chỉ có nước đem bảo hành thôi</t>
+  </si>
+  <si>
+    <t>đập</t>
+  </si>
+  <si>
+    <t>Dùng được 2 tháng mà giờ cứ đến tầm chiều là k mở đc máy . khi đó màn hình cứ dật dật bực mình. Bị liên tục nhiều lúc có cuộc gọi k thể vuốt để nghe đc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dật dật </t>
+  </si>
+  <si>
+    <t>Sản phẩm rất tệ minh mua 1tháng đoi 3 lần vẫn bị lỗi wifi vi ko bắt được.. Minh đã đổi qua dòng khac.mong nhà sản xuất khac phục lỗi này</t>
+  </si>
+  <si>
+    <t>Wifi rớt liên tục k bắt dc dù ở kế cục wifi, học online mà v sao dc M muốn đổi trả sp</t>
+  </si>
+  <si>
+    <t>rớt</t>
+  </si>
+  <si>
+    <t>Trải nghiệm: Đơ, đơ và đơ. Cảm ứng đút túi quần nhầm liên tục là vân tay. Ko đụng gì mà nhảy như có ma chạm vào. Mình ko chơi game nên ko quan tâm. Ức nhất là người ta gọi đến ấn nhận ko ấn đc, ấn hủy ko ấn được. Phải đợi 1 lúc gọi lại mới đc. Chắc do cảm ứng vân tay dưới màn hình. Con này ko nên mua nhé</t>
+  </si>
+  <si>
+    <t>ko nên mua</t>
+  </si>
+  <si>
+    <t>Bắt wifi yếu. 4G rất yếu. So sánh với máy cũ SS GLX J6 thì thua xa. Quá chán Đã dùng 1 tuần</t>
+  </si>
+  <si>
+    <t>Vân tay hơi ốm lúc nhận lúc ko. Pin 5000 mà kém quá sai lầm khi mua , máy quá đơ</t>
+  </si>
+  <si>
+    <t>Quá thất vọng, mua về dùng chưa được 1 tháng, chụp hình bị ngả ánh vàng, zalo có cuộc gọi đến không hiện. dùng cứ đơ đơ , mua máy mới mà cứ như mua đồ cũ.</t>
+  </si>
+  <si>
+    <t>Xài được 2 tháng bắt đầu tự tắt nguồn, wifi, zalo xài tệ</t>
+  </si>
+  <si>
+    <t>Máy nóng nhanh. Pin không khỏe. Cảm biến vân tay hk nhạy. Có hiện tượng rung lắc. Cảm thấy thất vọng tràn trề.</t>
+  </si>
+  <si>
+    <t>hk nhạy</t>
+  </si>
+  <si>
+    <t>nóng nhanh</t>
+  </si>
+  <si>
+    <t>không khỏe</t>
+  </si>
+  <si>
+    <t>Dung dc 2 tháng máy đơ liên tục zalo thì hãy bị treo tệ thật bít vậy mua oppo còn hơn quảng cáo thì nói hay dùng thì khác</t>
+  </si>
+  <si>
+    <t>bị treo</t>
+  </si>
+  <si>
+    <t>Máy rất tệ, đổi 1 lần, bảo hành 1 lần và bây giờ vẫn lỗ mic và lỗi phần mềm. Cửa hàng mang những sản phẩm chất lượng kém để bán và người tiêu dùng chịu thiệt hại.</t>
+  </si>
+  <si>
+    <t>Máy giật, lắc, rất hay đơ, gây ức chế cực lớn cho người dùng. Quá sai lầm khi mua con máy này</t>
+  </si>
+  <si>
+    <t>loạn</t>
+  </si>
+  <si>
+    <t>Máy mua đc 3 tháng chơi liên quân nhiều khi nút di chuyển bị đơ loạn cảm biến. Ngoài ra mọi thứ điều ổn.... ko biết bên tgđ có bảo hành tình trạng máy như vậy ko</t>
+  </si>
+  <si>
+    <t>Sản phẩm lỗi quá trời ,sài rất tệ ,sai làm mua samsung galaxy A32 này,sài duoc 1 tháng bị lỗi tùm lum</t>
+  </si>
+  <si>
+    <t>Tệ và rất tệ. Không bằng con j7 của tôi. Sai lầm. Nhiều khuyết điểm không thể chấp nhận được.</t>
+  </si>
+  <si>
+    <t>Máy dùng thường xuyên bị lỗi wifi và camera, thi thoảng còn hay bị những lỗi vặt khác. Nhiều khi đang có việc gấp mà cứ phải khởi động lại máy.</t>
+  </si>
+  <si>
+    <t>Sam sung A32 là cái lỗi nhất trong những cái ss, hết sức tệ ah, máy sài nhanh nóng và rớt mạng liên tục</t>
+  </si>
+  <si>
+    <t>Máy quá tệ lên mạng xem phim thì được. Mua dành cho công việc khuyên các bạn đừng nên mua vì máy chụp hình mở trên máy tính không được</t>
+  </si>
+  <si>
+    <t>Kết nối mạng yếu,pin ko tiết kiệm như các dòng samsung J,mạng hình hay bị đơ.chỉ có nhân viên là phục vụ rất tốt.</t>
+  </si>
+  <si>
+    <t>Quá tệ ..tốt nhất ai chưa mua thì đừng nên mua..tôi mua về dùng được hơn 2 tháng..máy tệ chưa từng có</t>
+  </si>
+  <si>
+    <t>Đt rất tệ mạng thì yếu pin nhanh hết 1 ngày k đủ sài chơi game không được mượt nóng máy</t>
+  </si>
+  <si>
+    <t>cảm ứng như ..., ngta gọi bấm nge cả chục lần ko ăn, chơ game chug 1 wifi thua cái relme 3 triệu mấy, ae chuẩn bị mua dòng samsung nên suy nghĩ lại. nên chọn vivo vs oppo hoặc ip cũ</t>
+  </si>
+  <si>
+    <t>Lướt face không cũng nóng xôi mua sài k ưng chút nào quá tệ</t>
+  </si>
+  <si>
+    <t>Bắt sóng, wifi yếu. Vào zalo muốn chụp ảnh gửi thì nó hiển thị kêu khởi động lại thiết bị (không phải 1 lần mà rất nhiều lần). Cảm biến vân tay không nhạy. Bàn phím đôi khi đơ. Xem ảnh được gửi qua zalo rất là chậm. Gọi video call tắt rồi vẫn reo rồi đứng náy luôn... Nói chung là thất vọng !!!!</t>
+  </si>
+  <si>
+    <t>wifi yếu</t>
+  </si>
+  <si>
+    <t>Sản phẩm này mới ra nhưng rất tệ. Lỗi nhiều điểm: pin 5000 nhưng hao pin cực nhanh, bắt sóng wifi và 4G kém, hay bị đứt mạng; load ứng dụng chậm; lỗi về thoại đi và kiểm tra tài khoản báo MMI không hợp lệ.</t>
+  </si>
+  <si>
+    <t>Tôi mới mua samsungA32 sử dụng được 1 hôm.các vấn đề khác tôi chưa tìm hiểu kỹ.nhưng vấn đề pin theo tôi không được.pin tụt nhanh và rất nhanh nóng.</t>
+  </si>
+  <si>
+    <t>Máy dùng 6 tháng đã lỗi máy ảnh rồi. Mở khóa vân tay đôi khi không dùng đc .xem tiktok nhiều khi lỗi mất tiếng nữa.</t>
+  </si>
+  <si>
+    <t>Hàng k bằng hàng tàu ,,sai lầm khi mua ss a32..cảm ứng chậm...pin nhanh hết,,chip quá yếu...giật lảng như con redmi 9a ram có 2g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k bằng</t>
+  </si>
+  <si>
+    <t>Cục kỳ tệ. Mua sài chưa đc 1 tháng lỗi liên tục. Zalo; messeger ko mở bong bóng chat đc. Mở đc ghì mất cái list tổng. Muôna đập cái điện thoại luôn. Mua phí tiền</t>
+  </si>
+  <si>
+    <t>phí tiền</t>
+  </si>
+  <si>
+    <t>Đã đổi máy 1 vì đơ máy sập nguồn.đổi về lâu lâu vẫn đơ.bán phìm bấm chạm hơn rùa.chán</t>
+  </si>
+  <si>
+    <t>Dòng này quá tệ, dùng có vài tháng mà hư gần chục lần. Hết hư loa, hư màn hình rồi tới hư nguồn sạc... nản.</t>
+  </si>
+  <si>
+    <t>nản</t>
+  </si>
+  <si>
+    <t>Dùng cực kỳ chán. Tầm giá này mua oppo ngon hơn. Cảm ứng vân tay ko mượn đã vậy thết kế ở sườn lỡ chạm vào cái. Ngửa dt ra đã thấy bạn nhập sai mã pin còn 30s nữa chạy ứng dụng chậm hơn so vs dòng khác.</t>
+  </si>
+  <si>
+    <t>Máy yếu quá WiFi thì bắt chậm .. Nói chug 1 sao cho dòng máy này ... Dòng máy ngày càg đi xuống.. so sánh thì phần mền quá tệ ..</t>
+  </si>
+  <si>
+    <t>Quá thất vọng ! Dùng tý là lag đứng màn hình ! Ngoài pin ra thì k có gì để nói . Xin hướng khắc phục</t>
+  </si>
+  <si>
+    <t>Bị lỗi củ sạc, sạc không vào gửi bảo hành yêu cầu phải gửi kèm theo máy hơn 10 ngày. Nản</t>
+  </si>
+  <si>
+    <t>Mới mua chưa dc 1 thág dùng thì pin rất là hao.chỉ lướt fb k mak dc dc 1 ngay đã hết pin</t>
+  </si>
+  <si>
+    <t>Quá tệ 9tr mà sử dụng k mượt mà. Pin dùng k được ổn. Samsung tầm trung không nên mua</t>
+  </si>
+  <si>
+    <t>Mới mua hết bảo hành thì bị hư. Gửi lên hãng 10 ngày về hư tiếp cảm thấy chán hãng ss .từ đây về sao k bảo giờ mua bất cứ gì của ss nữa</t>
+  </si>
+  <si>
+    <t>Camera cực xấu. Cân nhắc khi mua nếu thích selfie, chụp tối toàn hạt mưa</t>
+  </si>
+  <si>
+    <t>Nó rất tệ. Quá thất vọng. Mới mua mà bật wifi không được, chỉ sử dụng 4G.Sau 2 ngày tịt luôn cả 2.Màn hình mỏng ét..Tắt máy khởi động lại thì thi thoảng lên, thi thoảng tịt luôn. Không biết nói sao bây giờ. Nó giống như đồ chơi trẻ con ấy mọi người. Không thể tin nổi. Em xin bái ...</t>
+  </si>
+  <si>
+    <t>Xem video và nghe nhạc âm thanh lúc to lúc nhỏ ko hài lòng</t>
+  </si>
+  <si>
+    <t>Điện thoại bị lỗi bàn phím cấu hình thì lag sai lầm lớn khi mua máy này</t>
+  </si>
+  <si>
+    <t>Thiết kế cùi mía</t>
+  </si>
+  <si>
+    <t>cùi mía</t>
+  </si>
+  <si>
+    <t>Mọi thứ đều rất tốt , trừ việc máy nhanh nóng</t>
+  </si>
+  <si>
+    <t>Máy đẹp, pin trâu, mượt mà, không màu mè, thiết kế đơn giản dành cho những người trưởng thành</t>
+  </si>
+  <si>
+    <t>Máy sai tốt trong phan khuc gia này. Khuyên mọi ngưoi nên lấy ss</t>
+  </si>
+  <si>
+    <t>Máy mượt thực sự, mình đặt cọc trc và nhận hàng ngà đầu tiên mở bán được giảm 500k kèm tai nghe buds live khá thích. Camera chụp hình nét, Pin cao 5000mah. Màng hình ss thì k có gì phải chê. Phải dùng thêm thời gian để bk ntn nữa. Trải nghiệm thực tế hiện tại ok nhé</t>
+  </si>
+  <si>
+    <t>Màn hình đúng đỉnh - camera siêu nét - nhìn rất giống dòng sản phẩm cao cấp</t>
+  </si>
+  <si>
+    <t>siêu nét</t>
+  </si>
+  <si>
+    <t>cao cấp</t>
+  </si>
+  <si>
+    <t>đúng đỉnh</t>
+  </si>
+  <si>
+    <t>Chụp ảnh đẹp nhân viên tư vấn nhiệt tình..chăm sóc khách hàng tốt</t>
+  </si>
+  <si>
+    <t>mua về dung kha thích. dùng ngon k lag màn hình đẹp loa to rõ, chụp đẹp chưa có điểm nào để chê</t>
+  </si>
+  <si>
+    <t>chê</t>
+  </si>
+  <si>
+    <t>Pin rất tốt dung binh thường dc hơn 2 ngày quá ngon</t>
+  </si>
+  <si>
+    <t>sắt nét</t>
+  </si>
+  <si>
+    <t>Mọi thứ đều rất ok điện thoại mượt vân tay nhanh không có lỗi gì và nhân viên rất nhiệt tình bùn cái là không nhận được túi và tai nghe</t>
+  </si>
+  <si>
+    <t>Máy sạc nhanh, pin khá ổn, chiến game ok. Camera sắc nét, vân tay nhạy, màn hình 120hz mượt mà. Trong tầm giá con này khá ok. Nhân viên nhiệt tình vui vẻ</t>
+  </si>
+  <si>
+    <t>Sạc pin rất nhanh luôn, bất ngờ với cấu hình mà tầm giá này thì quá ngon. Chơi game mượt mà</t>
+  </si>
+  <si>
+    <t>Sản phẩm chất lượng, trước xài 10s,này qua xài 11 pro thấy xứng đáng với hơn 7 triệu</t>
+  </si>
+  <si>
+    <t>Máy thiết kế đẹp,cầm nắm rất thích, chắc chắn. Tác vụ rất mượt hầu như ko có độ trễ... Game nặng thì cứ vù vù hơn cả 1 số máy có giá cao hơn nhiều... Pin trâu,sạc rất nhanh... Tuyệt vời</t>
+  </si>
+  <si>
+    <t>Cảm thấy hải lòng, Nhân viên ĐMX nhiệt tình thân thiện, mình không yêu cầu cao</t>
+  </si>
+  <si>
+    <t>Cảm ơn! Nhân viên nhẹ nhàng, nhiệt tình, máy đt ổn.</t>
+  </si>
+  <si>
+    <t>Đang dùng rất tốt mọi thừ đều ok riêng phần Pin nhanh hao hok chơi game tầm hơn 2 ngày còn chơi game thì 1 ngày</t>
+  </si>
+  <si>
+    <t>Màn hình rực rỡ, sáng Sạc rất nhanh chưa tới 1 tiếng đã đầy, sạc từ 30% tới 100% Hệ điều hành mượt mà, animation tốt hơn hẳn Do xài tần số quét 120hz tốn pin nhưng do có sạc nhanh 67W Nên đỡ hẳn</t>
+  </si>
+  <si>
+    <t>rực rỡ</t>
+  </si>
+  <si>
+    <t>vMáy đẹp, màn hình mượt, cấu hình cao rất đáng mua với giá hợp lý, nói chung máy sài ngon không thất vọng khi mua nha cả nhà</t>
+  </si>
+  <si>
+    <t>Dùng rất mượt ko thấy lỗi gì , loa kép quá ok</t>
+  </si>
+  <si>
+    <t>Đáng mua, ai có nhu cầu về camera và xem phim lướt fb thì mua ngay siêu ngon. Còn game thì mấy game phổ biến như pubg, liên quân... Thì đồ họa phù hợp siêu mượt hơn 3 năm nx, lên genshin thì khá mượt với low setting</t>
+  </si>
+  <si>
+    <t>Đáng mua</t>
+  </si>
+  <si>
+    <t>Sạc nhanh. Nhân viên chu đáo. Camera chụp 108mp chụp cũng k hơn 48mp là bao. Nói chung oki. Kết con này vì cầm khuôn vuông</t>
+  </si>
+  <si>
+    <t>Điện thoại pin khoẻ máy trâu chơi game mượt mà, nhân viên tư vấn nhiệt tình sẽ còn ủng hộ tgdd</t>
+  </si>
+  <si>
+    <t>máy ổn trong phân khúc pin xạc nhanh</t>
+  </si>
+  <si>
+    <t>Sản phẩm tốt trong tầm giá</t>
+  </si>
+  <si>
+    <t>Máy mới mua hôm nay rất đẹp và mượt</t>
+  </si>
+  <si>
+    <t>Ngon bổ rẻ. Nhanh gọn tốc độ rất mượt mà. Màn hình không quá to củng không quá nhỏ. Đầu tư cái ốp lưng cầm phê luôn.</t>
+  </si>
+  <si>
+    <t>Ngon bổ rẻ</t>
+  </si>
+  <si>
+    <t>Haizz ngon thật mà lỡ mua reno 6z rồi Sẽ kêu chị mua máy này</t>
+  </si>
+  <si>
+    <t>Xài dc tầm 1 tháng mình cảm nhận khá ok máy tốt chơi game ổn mà k nóng máy với sạc 67w mà hầu như ấm nhẹ không nóng gì luôn màn hình đẹp cơ bản là ok nhất trong tầm giá rồi</t>
+  </si>
+  <si>
+    <t>Màn hình đẹp, Cam chụp đủ sáng đẹp, tốc độ xử lý tốt, chưa thấy lag với những tác vụ hàng ngày, chưa chiến game nên không biết thế nào. pin sử dụng được 1 ngày (nên tắt ứng dụng ngầm) với tác vụ vừa phải. Nói chung là khá ổn</t>
+  </si>
+  <si>
+    <t>Máy ms mua 2 ngày k có j để chê cả</t>
+  </si>
+  <si>
+    <t>Máy dùng tốt, sạc nhanh 45p 100% pin. Loa rất hay, bass nhiều và có lực rất mạnh, về khoảng loa ăn đứt đuôi A52S và các con trong tầm giá. Màn hình đẹp và 120HZ rất mượt, pin trâu, thiết kế đẹp đầm tay. Camera đẹp hơn A52S nhiều chỉ thua chống rung thôi. Vân tay bên ngoài siêu nhạy.</t>
+  </si>
+  <si>
+    <t>Dùng rất ổn, từng sử dụng rất nhiều sản phẩm của xiaomi và chưa bao giờ thất vọng , sạc cực nhanh , genshin thì ko cân nổi 60 fps ở mức full low :( , nhưng các tựa game như liên quân thì max cấu hình full 60 fps</t>
+  </si>
+  <si>
+    <t>Giá tầm trung mình thays quá ngon .h chưa thấy lỗi đã mua đc 1 tháng Xiaomi làm thế này là tốt rồi</t>
+  </si>
+  <si>
+    <t>Máy ngon.chơi game cực mượt.mỗi tội pin 5000 mà tụt nhanh</t>
+  </si>
+  <si>
+    <t>Mua về gần 1 tuần, mọi thứ đều rất tốt, pin sạc rất nhanh</t>
+  </si>
+  <si>
+    <t>Điện thoại tốt , chị nhân viên rất dể thương , tư vấn nhiệt tình,,</t>
+  </si>
+  <si>
+    <t>Sản phẩm tuyệt vời, giá tốt, cấu hình cao</t>
+  </si>
+  <si>
+    <t>giá tốt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cấu hình cao</t>
+  </si>
+  <si>
+    <t>Pin sạc nhanh đầy. Máy sài ổn định. Chơi game max setting cực mượt. Đáng để mua với giá tiền.</t>
+  </si>
+  <si>
+    <t>Màn hình đẹp, mượt mà. Pin dùng tương đối tốt, sạc nhanh. Xem video bao phê. Đóng mở app tương đối mượt, thỉnh thoảng vẫn bị lag 1 chút ở một vài ứng dụng.</t>
+  </si>
+  <si>
+    <t>Màn hình đẹp, chơi game rất mượt, nói chung mọi thứ rất tốt</t>
+  </si>
+  <si>
+    <t>Vô đối trong tầm giá, hiệu năng mạnh mẽ, thiết kế đẹp, nhân viên TGDĐ hỗ trợ nhiệt tình thân thiện</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="E407" sqref="E407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4032,6 +4551,1174 @@
         <v>8</v>
       </c>
     </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B318" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B326" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B328" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B335" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B338" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B341" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B344" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B362" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B372" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B373" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B374" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B387" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B391" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B392" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B393" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B395" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B396" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B398" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B399" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B400" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B401" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4040,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4461,6 +6148,61 @@
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -4473,10 +6215,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4736,6 +6478,126 @@
         <v>418</v>
       </c>
     </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="591">
   <si>
     <t>Bình luận</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Trung tâm bảo hành lừa đảo Từ chối bảo hành khách hàng trong khi máy con nguyên tem dữ ốc máy , máy chỉ lỗi pin thay pin là xong , báo khách hàng phải thay main , thay pin tổng 4 triệu 500 nghìn . Từ nay cạch ra …</t>
   </si>
   <si>
-    <t>am sung đã tìm thấy một vàng tại Việt Nam . Thật đơn giản. Một vành này trữ lượng rất lớn trong tương lai</t>
-  </si>
-  <si>
     <t>Sản phẩm tốt, pin trâu, màn hình đẹp, xử lý tốt mình sẽ giới thiệu người thân dùng,</t>
   </si>
   <si>
@@ -688,9 +685,6 @@
     <t>Sản phẩm cực tệ của Nokia .vào mục nào cũng đơ đơ load chậm. Mới trải nghiệm đc 1 ngày mà muốn đổi trả máy</t>
   </si>
   <si>
-    <t>iện thoại mới mua , mà sao thao tác chậm quá , chức năng sữ lý quay lại chậm . chậm hơn cái nokia đời củ , cách đây 10 năm .</t>
-  </si>
-  <si>
     <t>Máy quá chậm, đơ. Danh bạ, cuộc gọi rất chậm. Tôi muốn trả máy. Chính sách đổi trả ra sao.</t>
   </si>
   <si>
@@ -706,12 +700,6 @@
     <t>Điện thoại rất chất lượng. Mình mua ở ĐMX đường 5 BH-ĐH. Nhân viên rất nhiệt tình và dễ thương nha. Mấy chị rất nhiệt tình. Điện thoại rất đẹp, loa lớn, màn hình và cảm ứng okay, mượt và rất ổn trong tầm giá.</t>
   </si>
   <si>
-    <t>ất ok nhé mới mua đây mặc dù là máy cũ chỉ 700k thôi nhưng duyệt web,youtube,chơi một số game nhẹ như đánh bài zombie tsunami ok nhé.nv bán k rành nên cài youtube go rồi quá trời ứng dụng bản go nhưng k cần thiết nhé.đt đủ sức đáp ứng bản thường.loa nghe k lớn lắm nhưng rất trong và hay.pin thì sau 6 tiếng sử dụng.đa số cài ung dụng.cài đặt lại máy.nghe nhạc ít.doc báo.thì hao khoảng 30%.noi chung 700k ok r</t>
-  </si>
-  <si>
-    <t>ất tệ . Đt gọi thì đc nhận cuộc gọi thì bảo đường dây bận . Rồi đi cho nhân viên kiểm tra lại nói là do nhà mạng. Trong khi mình gắn . Mobi . Viettel. Vina. Cả 3 mạng lun đều như vậy. Như 3 sim đó gắn máy khác vẫn Sài bình thường nghe gọi vẫn OK . Ngoài đường thì dịch tgdd thì chỗ mở cửa chổ ko đi vòng vòng mấy chỗ mới có chỗ mở cửa để cho nhân viên coi lại dùm . Mà vẫn vậy thôi có 230k để đó trưng chơi chứ chạy tới chạy lui lỡ gặp chị covi nữa thì khổ</t>
-  </si>
-  <si>
     <t>Ko thua gì 3310 chính hãng . mang riềng là TQ nhưng xài còn hơn chính hãng . quá tuyệt</t>
   </si>
   <si>
@@ -1802,6 +1790,15 @@
   </si>
   <si>
     <t>Vô đối trong tầm giá, hiệu năng mạnh mẽ, thiết kế đẹp, nhân viên TGDĐ hỗ trợ nhiệt tình thân thiện</t>
+  </si>
+  <si>
+    <t>Sam sung đã tìm thấy một vàng tại Việt Nam . Thật đơn giản. Một vành này trữ lượng rất lớn trong tương lai</t>
+  </si>
+  <si>
+    <t>Rất ok nhé mới mua đây mặc dù là máy cũ chỉ 700k thôi nhưng duyệt web,youtube,chơi một số game nhẹ như đánh bài zombie tsunami ok nhé.nv bán k rành nên cài youtube go rồi quá trời ứng dụng bản go nhưng k cần thiết nhé.đt đủ sức đáp ứng bản thường.loa nghe k lớn lắm nhưng rất trong và hay.pin thì sau 6 tiếng sử dụng.đa số cài ung dụng.cài đặt lại máy.nghe nhạc ít.doc báo.thì hao khoảng 30%.noi chung 700k ok r</t>
+  </si>
+  <si>
+    <t>Điện thoại mới mua , mà sao thao tác chậm quá , chức năng sữ lý quay lại chậm . chậm hơn cái nokia đời củ , cách đây 10 năm .</t>
   </si>
 </sst>
 </file>
@@ -2139,15 +2136,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B446"/>
+  <dimension ref="A1:B445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="E407" sqref="E407"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224:XFD224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="85" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2513,7 +2510,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>588</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -2521,7 +2518,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -2529,7 +2526,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -2537,7 +2534,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2545,7 +2542,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2553,7 +2550,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2561,7 +2558,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2577,7 +2574,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -2593,7 +2590,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -2601,7 +2598,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -2609,7 +2606,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2617,7 +2614,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -2625,7 +2622,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2633,7 +2630,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2641,7 +2638,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2649,7 +2646,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2657,7 +2654,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -2673,7 +2670,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2681,7 +2678,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2689,7 +2686,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2697,7 +2694,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2705,7 +2702,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -2713,7 +2710,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2737,7 +2734,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -2745,7 +2742,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -2753,7 +2750,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2761,7 +2758,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2769,7 +2766,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -2777,7 +2774,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -2785,7 +2782,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -2793,7 +2790,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -2801,7 +2798,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -2809,7 +2806,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -2817,7 +2814,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -2825,7 +2822,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -2833,7 +2830,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -2841,7 +2838,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -2849,7 +2846,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -2865,7 +2862,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2873,7 +2870,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -2881,7 +2878,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -2889,7 +2886,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -2897,7 +2894,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -2913,7 +2910,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -2929,7 +2926,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -2937,7 +2934,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -2945,7 +2942,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -2953,7 +2950,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2961,7 +2958,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -2969,7 +2966,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -2977,7 +2974,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -2993,7 +2990,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -3001,7 +2998,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -3009,7 +3006,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -3017,7 +3014,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -3025,7 +3022,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -3033,7 +3030,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -3041,7 +3038,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -3049,7 +3046,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -3057,7 +3054,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -3065,7 +3062,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -3073,7 +3070,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -3081,7 +3078,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -3089,7 +3086,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -3097,7 +3094,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -3105,7 +3102,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -3121,7 +3118,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -3129,7 +3126,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -3145,7 +3142,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -3161,7 +3158,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -3169,7 +3166,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -3185,7 +3182,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -3193,7 +3190,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -3201,7 +3198,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -3209,7 +3206,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -3217,7 +3214,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -3225,7 +3222,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -3233,7 +3230,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -3241,7 +3238,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -3249,7 +3246,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -3257,7 +3254,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -3265,7 +3262,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -3273,7 +3270,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -3281,7 +3278,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -3289,7 +3286,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -3305,7 +3302,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -3313,7 +3310,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -3321,7 +3318,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -3329,7 +3326,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -3337,7 +3334,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -3345,7 +3342,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -3353,7 +3350,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -3361,15 +3358,15 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -3377,7 +3374,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -3385,7 +3382,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -3393,7 +3390,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -3401,7 +3398,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -3409,7 +3406,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
@@ -3417,7 +3414,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -3425,7 +3422,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -3433,7 +3430,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -3441,15 +3438,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -3457,15 +3454,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
@@ -3473,7 +3470,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -3481,7 +3478,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
@@ -3489,7 +3486,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -3497,7 +3494,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -3505,7 +3502,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -3513,7 +3510,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3521,7 +3518,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -3529,7 +3526,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -3545,7 +3542,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -3553,7 +3550,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -3561,7 +3558,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3569,7 +3566,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -3577,7 +3574,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3593,15 +3590,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -3609,7 +3606,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -3617,7 +3614,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -3625,7 +3622,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -3633,7 +3630,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -3641,7 +3638,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -3657,7 +3654,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
@@ -3665,7 +3662,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -3673,7 +3670,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -3689,7 +3686,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -3697,7 +3694,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3705,7 +3702,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -3713,7 +3710,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
@@ -3721,7 +3718,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3729,7 +3726,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3737,7 +3734,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -3745,7 +3742,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3753,7 +3750,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
@@ -3761,7 +3758,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3769,7 +3766,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -3777,7 +3774,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3785,7 +3782,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
@@ -3793,7 +3790,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3801,7 +3798,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
@@ -3809,7 +3806,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -3817,7 +3814,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -3825,7 +3822,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3833,7 +3830,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -3841,7 +3838,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
@@ -3857,7 +3854,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -3865,7 +3862,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
@@ -3873,7 +3870,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -3881,7 +3878,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -3889,7 +3886,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
@@ -3897,7 +3894,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -3905,7 +3902,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
@@ -3913,7 +3910,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
@@ -3921,7 +3918,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>220</v>
+        <v>590</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
@@ -3929,7 +3926,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
@@ -3937,7 +3934,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -3945,18 +3942,18 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,23 +3966,23 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>225</v>
+        <v>589</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -3993,7 +3990,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -4001,23 +3998,23 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -4025,15 +4022,15 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
@@ -4041,7 +4038,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
@@ -4057,23 +4054,23 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B241" t="s">
         <v>8</v>
@@ -4081,23 +4078,23 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4105,7 +4102,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -4113,23 +4110,23 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B247" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -4137,10 +4134,10 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4153,18 +4150,18 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,20 +4169,20 @@
         <v>195</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4193,7 +4190,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -4201,7 +4198,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -4209,7 +4206,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -4217,7 +4214,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -4225,7 +4222,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -4233,7 +4230,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -4249,7 +4246,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -4257,7 +4254,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -4273,7 +4270,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -4281,23 +4278,23 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B268" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -4305,7 +4302,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -4313,7 +4310,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -4321,15 +4318,15 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
@@ -4337,15 +4334,15 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -4353,7 +4350,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -4361,7 +4358,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -4369,7 +4366,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -4377,7 +4374,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -4385,15 +4382,15 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
@@ -4401,7 +4398,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -4409,7 +4406,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
@@ -4417,7 +4414,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
@@ -4441,7 +4438,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
@@ -4449,7 +4446,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
@@ -4457,15 +4454,15 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -4473,23 +4470,23 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -4497,7 +4494,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -4505,7 +4502,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -4513,31 +4510,31 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
@@ -4545,7 +4542,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
@@ -4553,7 +4550,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B301" t="s">
         <v>8</v>
@@ -4561,15 +4558,15 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B302" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -4577,7 +4574,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -4585,7 +4582,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -4601,7 +4598,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -4609,7 +4606,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -4625,7 +4622,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -4633,7 +4630,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -4641,7 +4638,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -4649,7 +4646,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -4657,7 +4654,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -4665,15 +4662,15 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B315" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B316" t="s">
         <v>8</v>
@@ -4681,7 +4678,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B317" t="s">
         <v>8</v>
@@ -4689,7 +4686,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B318" t="s">
         <v>8</v>
@@ -4697,7 +4694,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B319" t="s">
         <v>8</v>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B320" t="s">
         <v>8</v>
@@ -4713,7 +4710,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B321" t="s">
         <v>8</v>
@@ -4721,7 +4718,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B322" t="s">
         <v>8</v>
@@ -4729,7 +4726,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B323" t="s">
         <v>8</v>
@@ -4737,7 +4734,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B324" t="s">
         <v>8</v>
@@ -4745,7 +4742,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B325" t="s">
         <v>8</v>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B326" t="s">
         <v>8</v>
@@ -4761,7 +4758,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B327" t="s">
         <v>8</v>
@@ -4769,7 +4766,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B328" t="s">
         <v>8</v>
@@ -4777,7 +4774,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B329" t="s">
         <v>8</v>
@@ -4785,7 +4782,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B330" t="s">
         <v>8</v>
@@ -4793,7 +4790,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
@@ -4801,7 +4798,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B332" t="s">
         <v>8</v>
@@ -4809,7 +4806,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B333" t="s">
         <v>8</v>
@@ -4817,7 +4814,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B334" t="s">
         <v>8</v>
@@ -4825,7 +4822,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B335" t="s">
         <v>8</v>
@@ -4833,7 +4830,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B336" t="s">
         <v>8</v>
@@ -4841,7 +4838,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B337" t="s">
         <v>8</v>
@@ -4849,7 +4846,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B338" t="s">
         <v>8</v>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B339" t="s">
         <v>8</v>
@@ -4865,7 +4862,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B340" t="s">
         <v>8</v>
@@ -4873,7 +4870,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B341" t="s">
         <v>8</v>
@@ -4881,7 +4878,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B342" t="s">
         <v>8</v>
@@ -4889,7 +4886,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B343" t="s">
         <v>8</v>
@@ -4897,7 +4894,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B344" t="s">
         <v>8</v>
@@ -4905,7 +4902,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B345" t="s">
         <v>8</v>
@@ -4913,7 +4910,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B346" t="s">
         <v>8</v>
@@ -4921,7 +4918,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B347" t="s">
         <v>8</v>
@@ -4929,7 +4926,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B348" t="s">
         <v>8</v>
@@ -4937,7 +4934,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
@@ -4945,7 +4942,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B350" t="s">
         <v>8</v>
@@ -4953,7 +4950,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B351" t="s">
         <v>8</v>
@@ -4961,7 +4958,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B352" t="s">
         <v>8</v>
@@ -4969,7 +4966,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B353" t="s">
         <v>8</v>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B354" t="s">
         <v>8</v>
@@ -4985,7 +4982,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B355" t="s">
         <v>8</v>
@@ -4993,7 +4990,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B356" t="s">
         <v>8</v>
@@ -5001,7 +4998,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B357" t="s">
         <v>8</v>
@@ -5009,7 +5006,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B358" t="s">
         <v>8</v>
@@ -5017,7 +5014,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B359" t="s">
         <v>8</v>
@@ -5025,7 +5022,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B360" t="s">
         <v>8</v>
@@ -5033,7 +5030,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B361" t="s">
         <v>8</v>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B362" t="s">
         <v>8</v>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B363" t="s">
         <v>8</v>
@@ -5057,7 +5054,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B364" t="s">
         <v>8</v>
@@ -5065,7 +5062,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B365" t="s">
         <v>8</v>
@@ -5073,7 +5070,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B366" t="s">
         <v>8</v>
@@ -5089,7 +5086,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
@@ -5097,7 +5094,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B369" t="s">
         <v>8</v>
@@ -5105,7 +5102,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B370" t="s">
         <v>8</v>
@@ -5113,7 +5110,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B371" t="s">
         <v>8</v>
@@ -5121,7 +5118,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B372" t="s">
         <v>8</v>
@@ -5129,7 +5126,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B373" t="s">
         <v>8</v>
@@ -5137,7 +5134,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B374" t="s">
         <v>8</v>
@@ -5145,7 +5142,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B375" t="s">
         <v>8</v>
@@ -5153,7 +5150,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B376" t="s">
         <v>8</v>
@@ -5161,7 +5158,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B377" t="s">
         <v>8</v>
@@ -5169,7 +5166,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B378" t="s">
         <v>8</v>
@@ -5177,7 +5174,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B379" t="s">
         <v>8</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B380" t="s">
         <v>8</v>
@@ -5193,7 +5190,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B381" t="s">
         <v>8</v>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B382" t="s">
         <v>8</v>
@@ -5209,7 +5206,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B383" t="s">
         <v>8</v>
@@ -5217,7 +5214,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B384" t="s">
         <v>8</v>
@@ -5225,7 +5222,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B385" t="s">
         <v>8</v>
@@ -5233,7 +5230,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B386" t="s">
         <v>8</v>
@@ -5241,7 +5238,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B387" t="s">
         <v>8</v>
@@ -5249,7 +5246,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B388" t="s">
         <v>8</v>
@@ -5257,7 +5254,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B389" t="s">
         <v>8</v>
@@ -5265,7 +5262,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B390" t="s">
         <v>8</v>
@@ -5273,7 +5270,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B391" t="s">
         <v>8</v>
@@ -5281,7 +5278,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B392" t="s">
         <v>8</v>
@@ -5289,7 +5286,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B393" t="s">
         <v>8</v>
@@ -5297,7 +5294,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B394" t="s">
         <v>8</v>
@@ -5305,7 +5302,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B395" t="s">
         <v>8</v>
@@ -5313,7 +5310,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B396" t="s">
         <v>8</v>
@@ -5321,7 +5318,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B397" t="s">
         <v>8</v>
@@ -5329,7 +5326,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B398" t="s">
         <v>8</v>
@@ -5337,7 +5334,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B399" t="s">
         <v>8</v>
@@ -5345,7 +5342,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B400" t="s">
         <v>8</v>
@@ -5353,15 +5350,15 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B401" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -5369,7 +5366,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -5377,7 +5374,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -5385,7 +5382,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -5401,7 +5398,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -5409,7 +5406,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -5417,7 +5414,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>552</v>
+        <v>425</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
@@ -5425,7 +5422,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -5433,7 +5430,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -5441,7 +5438,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -5449,7 +5446,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -5457,7 +5454,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -5465,7 +5462,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -5473,7 +5470,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -5489,7 +5486,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -5497,7 +5494,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -5505,7 +5502,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -5513,7 +5510,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -5521,7 +5518,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -5529,7 +5526,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -5545,7 +5542,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -5553,7 +5550,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
@@ -5561,7 +5558,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -5569,7 +5566,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -5577,7 +5574,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -5593,7 +5590,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -5601,7 +5598,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -5609,7 +5606,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -5617,7 +5614,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -5625,7 +5622,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -5633,7 +5630,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -5641,7 +5638,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
@@ -5649,7 +5646,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
@@ -5657,7 +5654,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -5665,7 +5662,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -5673,7 +5670,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -5681,7 +5678,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
@@ -5689,7 +5686,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -5697,7 +5694,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
@@ -5705,17 +5702,9 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B445" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B446" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5737,472 +5726,472 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -6225,377 +6214,377 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
